--- a/data/trans_orig/P05A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>626004</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>609886</v>
+        <v>608397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>641025</v>
+        <v>638740</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.902006894769973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8787836146944502</v>
+        <v>0.8766370151557314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9236512347432593</v>
+        <v>0.9203582790136077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>633</v>
@@ -765,19 +765,19 @@
         <v>623378</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>607735</v>
+        <v>606997</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>636491</v>
+        <v>636127</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9120957725419209</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8892079461763613</v>
+        <v>0.8881271710297851</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9312814519062571</v>
+        <v>0.9307489248316295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1248</v>
@@ -786,19 +786,19 @@
         <v>1249382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1227940</v>
+        <v>1226120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1269108</v>
+        <v>1270424</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.907012677924113</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.891446771078189</v>
+        <v>0.8901251544474805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9213334173270539</v>
+        <v>0.9222886534986343</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>60110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46624</v>
+        <v>47069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>76168</v>
+        <v>75235</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08661281940153329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06718097029259659</v>
+        <v>0.06782130888621106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1097503551378435</v>
+        <v>0.1084058922459973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -836,19 +836,19 @@
         <v>49293</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36922</v>
+        <v>37383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63673</v>
+        <v>65059</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07212277210653348</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05402221679309407</v>
+        <v>0.05469672028668058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09316363348596385</v>
+        <v>0.09519113433721607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -857,19 +857,19 @@
         <v>109403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90854</v>
+        <v>90211</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>131612</v>
+        <v>131674</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07942331465268168</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06595693238451392</v>
+        <v>0.06549057993207361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09554603495853742</v>
+        <v>0.09559093180957416</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>7898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3604</v>
+        <v>3611</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15510</v>
+        <v>15410</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01138028582849373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005192809419678902</v>
+        <v>0.00520255534119858</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02234892708605608</v>
+        <v>0.02220475280754415</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>10786</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5139</v>
+        <v>5789</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18762</v>
+        <v>18586</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01578145535154564</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0075192184535401</v>
+        <v>0.008470677705593333</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02745100995688189</v>
+        <v>0.02719465125165925</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -928,19 +928,19 @@
         <v>18684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12024</v>
+        <v>11188</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29812</v>
+        <v>29181</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01356400742320527</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008729328550206231</v>
+        <v>0.008122314813749063</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0216423320584484</v>
+        <v>0.02118461253155495</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>860211</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>839814</v>
+        <v>840539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>877835</v>
+        <v>878448</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.900686106851152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8793288037152542</v>
+        <v>0.8800880435355164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9191396217902992</v>
+        <v>0.91978073358699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>813</v>
@@ -1053,19 +1053,19 @@
         <v>861163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>839800</v>
+        <v>840368</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>880061</v>
+        <v>878925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8923782035581025</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8702406386551208</v>
+        <v>0.8708297747384792</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9119617079514328</v>
+        <v>0.9107843898140092</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1616</v>
@@ -1074,19 +1074,19 @@
         <v>1721374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1693687</v>
+        <v>1688919</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1748967</v>
+        <v>1748430</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8965106103682163</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8820909967981482</v>
+        <v>0.8796078079981975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9108816336455565</v>
+        <v>0.9106018320616005</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>77473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61555</v>
+        <v>60961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>97206</v>
+        <v>96129</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08111806617080589</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06445129072359203</v>
+        <v>0.06382908397731361</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1017796678513527</v>
+        <v>0.1006521087430307</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>67</v>
@@ -1124,19 +1124,19 @@
         <v>76223</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>59537</v>
+        <v>59828</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>95102</v>
+        <v>94264</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07898566514210319</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06169534794712418</v>
+        <v>0.06199705238512471</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09854911036415295</v>
+        <v>0.09768098729097247</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>138</v>
@@ -1145,19 +1145,19 @@
         <v>153696</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>126506</v>
+        <v>130572</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>179440</v>
+        <v>180048</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08004633571349476</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06588569463227475</v>
+        <v>0.0680034413324338</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09345445061282615</v>
+        <v>0.09377104079791944</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>17378</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9989</v>
+        <v>9519</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27132</v>
+        <v>27473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01819582697804212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01045916304921729</v>
+        <v>0.009967105789796954</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02840910152663343</v>
+        <v>0.02876542046459642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1195,19 +1195,19 @@
         <v>27634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18378</v>
+        <v>18390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39955</v>
+        <v>41461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02863613129979431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01904377497552715</v>
+        <v>0.01905661089986685</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04140312962506031</v>
+        <v>0.04296432576278662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -1216,19 +1216,19 @@
         <v>45013</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31572</v>
+        <v>32466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59346</v>
+        <v>60460</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02344305391828893</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01644281898220758</v>
+        <v>0.0169085659321538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03090786808824491</v>
+        <v>0.03148811901290323</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>586654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>568729</v>
+        <v>564979</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>603543</v>
+        <v>602397</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8715577932176122</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.844927243572964</v>
+        <v>0.8393560066607566</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8966491095463429</v>
+        <v>0.894946064682302</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>614</v>
@@ -1341,19 +1341,19 @@
         <v>602287</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>584998</v>
+        <v>584155</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>618397</v>
+        <v>618512</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8839943333371126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8586183186890194</v>
+        <v>0.8573814285611027</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9076391422292309</v>
+        <v>0.9078078262755929</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1168</v>
@@ -1362,19 +1362,19 @@
         <v>1188942</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1164359</v>
+        <v>1165839</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1211928</v>
+        <v>1211813</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8778137805752655</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8596642197410012</v>
+        <v>0.8607569069701019</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8947850277208649</v>
+        <v>0.8947003474548065</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>78400</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62700</v>
+        <v>62568</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95730</v>
+        <v>98132</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1164737829612373</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09314901351634226</v>
+        <v>0.09295411146238762</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1422196987835502</v>
+        <v>0.1457888910789637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -1412,19 +1412,19 @@
         <v>64505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50820</v>
+        <v>50090</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81077</v>
+        <v>81207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09467645519106362</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07459021337633746</v>
+        <v>0.07351785749054722</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1189992147290341</v>
+        <v>0.1191893954924664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>137</v>
@@ -1433,19 +1433,19 @@
         <v>142905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121662</v>
+        <v>120928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>166158</v>
+        <v>164833</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1055090125628357</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08982512333981361</v>
+        <v>0.08928305351081531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1226766290735073</v>
+        <v>0.121698942232398</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>8056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3788</v>
+        <v>3804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14165</v>
+        <v>15388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01196842382115056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005628101107888011</v>
+        <v>0.005651521276868725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02104471737286093</v>
+        <v>0.02286053923630015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1483,19 +1483,19 @@
         <v>14532</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8489</v>
+        <v>8875</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23792</v>
+        <v>24320</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02132921147182379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01245914066277247</v>
+        <v>0.0130254170830296</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03492012857131208</v>
+        <v>0.0356957795779472</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1504,19 +1504,19 @@
         <v>22588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14081</v>
+        <v>14443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33187</v>
+        <v>33114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01667720686189883</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01039633333593736</v>
+        <v>0.01066355459172325</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02450211564938921</v>
+        <v>0.02444854361459831</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>823161</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>804546</v>
+        <v>803402</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>839503</v>
+        <v>840697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8929292370405025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8727360543872217</v>
+        <v>0.8714958919289056</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9106566542755533</v>
+        <v>0.9119510315558709</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>866</v>
@@ -1629,19 +1629,19 @@
         <v>899802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>879005</v>
+        <v>878091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>919486</v>
+        <v>919111</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8852266896346718</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8647668667704017</v>
+        <v>0.8638670847921353</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9045920447900341</v>
+        <v>0.904223060559717</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1734</v>
@@ -1650,19 +1650,19 @@
         <v>1722963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1694781</v>
+        <v>1694394</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1750339</v>
+        <v>1747690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.888890003386942</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8743506613802049</v>
+        <v>0.8741508967402545</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9030135716725985</v>
+        <v>0.901646842833813</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>73770</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>59002</v>
+        <v>58771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89332</v>
+        <v>90789</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08002203885715697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06400292158109676</v>
+        <v>0.06375204428074518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09690304052351707</v>
+        <v>0.0984840934006878</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>92</v>
@@ -1700,19 +1700,19 @@
         <v>96974</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>78445</v>
+        <v>79068</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115138</v>
+        <v>117868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0954028013488404</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07717451395960909</v>
+        <v>0.07778738900905448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1132729610488808</v>
+        <v>0.1159585582819369</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>171</v>
@@ -1721,19 +1721,19 @@
         <v>170743</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146399</v>
+        <v>149193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198299</v>
+        <v>197285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08808774623947038</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0755283195945559</v>
+        <v>0.07696979614613444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1023039108724707</v>
+        <v>0.1017809498157662</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>24935</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16558</v>
+        <v>16176</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36423</v>
+        <v>35174</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02704872410234048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01796121447866772</v>
+        <v>0.01754748081096554</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03950983099167037</v>
+        <v>0.03815493182606491</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -1771,19 +1771,19 @@
         <v>19689</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12749</v>
+        <v>11954</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30622</v>
+        <v>29715</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01937050901648786</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01254202964965756</v>
+        <v>0.01175991641999358</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03012569360083775</v>
+        <v>0.02923380415986678</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -1792,19 +1792,19 @@
         <v>44625</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>32461</v>
+        <v>33339</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58717</v>
+        <v>59899</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02302225037358756</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01674694073891176</v>
+        <v>0.01719983476627041</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03029266085926532</v>
+        <v>0.03090210309768967</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2896029</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2860923</v>
+        <v>2861688</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2933412</v>
+        <v>2931492</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8927205353075325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8818988972245514</v>
+        <v>0.882134563990203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9042439148875759</v>
+        <v>0.9036520573782991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2926</v>
@@ -1917,19 +1917,19 @@
         <v>2986630</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2947626</v>
+        <v>2952177</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3023100</v>
+        <v>3022479</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8925260382570467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8808699864089238</v>
+        <v>0.882229925943687</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9034247511243366</v>
+        <v>0.9032390170037156</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5766</v>
@@ -1938,19 +1938,19 @@
         <v>5882660</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5828389</v>
+        <v>5827803</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5928242</v>
+        <v>5931475</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8926217784256887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8843868527418339</v>
+        <v>0.8842979786991886</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8995383769771796</v>
+        <v>0.9000289439233781</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>289752</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>255950</v>
+        <v>257621</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>323992</v>
+        <v>324452</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08931810231787411</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07889837927835724</v>
+        <v>0.07941335722941301</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09987268086662542</v>
+        <v>0.1000145516864994</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>269</v>
@@ -1988,19 +1988,19 @@
         <v>286995</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>252965</v>
+        <v>256129</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>321798</v>
+        <v>320493</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08576560456119783</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07559603760206487</v>
+        <v>0.07654175889514513</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09616618843605959</v>
+        <v>0.09577635561876474</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>553</v>
@@ -2009,19 +2009,19 @@
         <v>576747</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>532179</v>
+        <v>533167</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>627793</v>
+        <v>627043</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08751430323541999</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08075168667542638</v>
+        <v>0.0809015457815819</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09525989618372552</v>
+        <v>0.09514608373636463</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>58268</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44372</v>
+        <v>45139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73235</v>
+        <v>76053</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01796136237459342</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01367799675572511</v>
+        <v>0.01391454232605249</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02257517186340422</v>
+        <v>0.02344400323818696</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -2059,19 +2059,19 @@
         <v>72642</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56724</v>
+        <v>56290</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91412</v>
+        <v>91139</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02170835718175549</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0169515561622651</v>
+        <v>0.01682163841635102</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02731762226042642</v>
+        <v>0.02723597245219675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -2080,19 +2080,19 @@
         <v>130909</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110182</v>
+        <v>108762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>153615</v>
+        <v>156664</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01986391833889131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01671876500307976</v>
+        <v>0.01650327803805001</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02330924281434639</v>
+        <v>0.02377181512727963</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>676637</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>666508</v>
+        <v>667149</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>684279</v>
+        <v>683838</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.972202902269326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9576494259768328</v>
+        <v>0.9585709909419152</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9831839080091471</v>
+        <v>0.9825497317362775</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>617</v>
@@ -2445,19 +2445,19 @@
         <v>661090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>648617</v>
+        <v>648074</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>671730</v>
+        <v>671627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9520583595967091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9340950713133763</v>
+        <v>0.933312860785855</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9673811437918913</v>
+        <v>0.9672330353899233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1265</v>
@@ -2466,19 +2466,19 @@
         <v>1337727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1321306</v>
+        <v>1320966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1351170</v>
+        <v>1349932</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9621422373898649</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9503313855535083</v>
+        <v>0.9500868653018506</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9718106572433099</v>
+        <v>0.9709208926499692</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>17563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10516</v>
+        <v>10501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27805</v>
+        <v>27037</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0252350308115719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01510913288928015</v>
+        <v>0.01508821006995482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03995013409229665</v>
+        <v>0.03884658125756283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -2516,19 +2516,19 @@
         <v>25711</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16285</v>
+        <v>16898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36747</v>
+        <v>39357</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03702781519061232</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02345325418270317</v>
+        <v>0.02433589160724229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05292112253988125</v>
+        <v>0.05667947897367849</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -2537,19 +2537,19 @@
         <v>43275</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31267</v>
+        <v>31771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58517</v>
+        <v>59183</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03112462848382608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02248832001865502</v>
+        <v>0.02285051382678874</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04208723257712738</v>
+        <v>0.04256631611971239</v>
       </c>
     </row>
     <row r="6">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6275</v>
+        <v>6362</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002562066919102054</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009016395862463318</v>
+        <v>0.009140453288821161</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -2587,19 +2587,19 @@
         <v>7578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3703</v>
+        <v>3745</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14150</v>
+        <v>14145</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01091382521267855</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005332499248065603</v>
+        <v>0.005393757094998706</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02037839387307765</v>
+        <v>0.02037031136081816</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -2608,19 +2608,19 @@
         <v>9362</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4678</v>
+        <v>4714</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16858</v>
+        <v>17063</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006733134126308984</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003364271468040139</v>
+        <v>0.003390550633553618</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0121252426080487</v>
+        <v>0.01227227991688471</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>915856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>895137</v>
+        <v>895248</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>937281</v>
+        <v>934340</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9044802837660659</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8840185608989845</v>
+        <v>0.8841279678668135</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9256388476845011</v>
+        <v>0.9227347455808639</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>849</v>
@@ -2733,19 +2733,19 @@
         <v>929655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>909648</v>
+        <v>907934</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>949651</v>
+        <v>947365</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9093066862890522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8897375284834388</v>
+        <v>0.8880613989773675</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9288647564750335</v>
+        <v>0.9266285305640116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1695</v>
@@ -2754,19 +2754,19 @@
         <v>1845511</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1814729</v>
+        <v>1816582</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1872327</v>
+        <v>1870463</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9069051080567154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8917786806788988</v>
+        <v>0.892688973160529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9200826565558574</v>
+        <v>0.9191667519015708</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>68923</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51595</v>
+        <v>54274</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>85327</v>
+        <v>87968</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06806666085902877</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05095420234331675</v>
+        <v>0.05359960344102412</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08426690060927737</v>
+        <v>0.08687493266084759</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -2804,19 +2804,19 @@
         <v>72870</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56603</v>
+        <v>57968</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>91228</v>
+        <v>93413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07127474267178613</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05536395865918321</v>
+        <v>0.05669913801978021</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0892315827656867</v>
+        <v>0.0913680932026935</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>126</v>
@@ -2825,19 +2825,19 @@
         <v>141792</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>119629</v>
+        <v>119578</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>168858</v>
+        <v>168079</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06967842752559179</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05878698388663074</v>
+        <v>0.05876175216160948</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08297880304048026</v>
+        <v>0.08259579536933918</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>27798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18809</v>
+        <v>18209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41768</v>
+        <v>40971</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02745305537490529</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01857566074242991</v>
+        <v>0.01798286155900516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04124875511042655</v>
+        <v>0.04046253941952153</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -2875,19 +2875,19 @@
         <v>19853</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11634</v>
+        <v>11566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31211</v>
+        <v>31474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01941857103916167</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01137888468485851</v>
+        <v>0.01131319251304887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03052805856679163</v>
+        <v>0.03078516655635914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -2896,19 +2896,19 @@
         <v>47651</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35208</v>
+        <v>34613</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63687</v>
+        <v>63747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02341646441769275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01730149694940339</v>
+        <v>0.01700906320780593</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03129646329608287</v>
+        <v>0.03132589923631356</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>691365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>673660</v>
+        <v>672973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>707030</v>
+        <v>706225</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9152848143896708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8918449827270172</v>
+        <v>0.8909355995518924</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9360231526191283</v>
+        <v>0.9349574129992285</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>648</v>
@@ -3021,19 +3021,19 @@
         <v>715031</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>697935</v>
+        <v>697344</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>728620</v>
+        <v>728421</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9282903477671143</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9060955183146924</v>
+        <v>0.9053280289077482</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9459314438139899</v>
+        <v>0.9456737071715863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1279</v>
@@ -3042,19 +3042,19 @@
         <v>1406396</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1382877</v>
+        <v>1380926</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1426606</v>
+        <v>1427016</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9218511437110549</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9064347848555406</v>
+        <v>0.9051562397665224</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9350978676750561</v>
+        <v>0.9353667320126493</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>53035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39231</v>
+        <v>39748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70196</v>
+        <v>68637</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07021205159232714</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05193779532864097</v>
+        <v>0.05262206171247054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09293118949236788</v>
+        <v>0.09086728350916068</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3092,19 +3092,19 @@
         <v>52345</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39542</v>
+        <v>39173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68084</v>
+        <v>69337</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06795729330254312</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05133572314487437</v>
+        <v>0.05085607582938761</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0883902430180909</v>
+        <v>0.09001647902602383</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -3113,19 +3113,19 @@
         <v>105380</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86215</v>
+        <v>85477</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127453</v>
+        <v>129003</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06907365264772707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05651155941236631</v>
+        <v>0.05602734058097902</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08354176370160062</v>
+        <v>0.08455762058025748</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>10955</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5006</v>
+        <v>4712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21392</v>
+        <v>21180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01450313401800211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006627386593329659</v>
+        <v>0.006238707971528517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0283204783416605</v>
+        <v>0.02804041781279996</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10551</v>
+        <v>10120</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003752358930342598</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01369753334578615</v>
+        <v>0.01313855085306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -3184,19 +3184,19 @@
         <v>13845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7258</v>
+        <v>6419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27065</v>
+        <v>25250</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009075203641218055</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004757452784163907</v>
+        <v>0.004207654271762197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01774009960108383</v>
+        <v>0.0165504683393633</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>816843</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>794849</v>
+        <v>792827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>837921</v>
+        <v>835289</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8731590142519158</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8496492718135471</v>
+        <v>0.8474868879760267</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8956902483639708</v>
+        <v>0.8928771745752493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>868</v>
@@ -3309,19 +3309,19 @@
         <v>914056</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>892027</v>
+        <v>892678</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>933721</v>
+        <v>934132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8819609162353176</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8607048640808438</v>
+        <v>0.8613333830811913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9009354846970267</v>
+        <v>0.9013316295562003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1656</v>
@@ -3330,19 +3330,19 @@
         <v>1730898</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1700305</v>
+        <v>1701289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1760655</v>
+        <v>1758785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8777851311673741</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8622705707658261</v>
+        <v>0.8627695640665044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.892875648061598</v>
+        <v>0.8919271524457395</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>89374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70882</v>
+        <v>72959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110299</v>
+        <v>110352</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0955359299389287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0757693093991202</v>
+        <v>0.07798881053265526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1179035162863173</v>
+        <v>0.1179597842543839</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -3380,19 +3380,19 @@
         <v>91769</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74006</v>
+        <v>74605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111739</v>
+        <v>113826</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08854695536282353</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07140771108776359</v>
+        <v>0.07198545199878444</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1078152886531666</v>
+        <v>0.1098296672794124</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>175</v>
@@ -3401,19 +3401,19 @@
         <v>181143</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>155833</v>
+        <v>155957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>207467</v>
+        <v>209457</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09186265414362919</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07902710095796373</v>
+        <v>0.07908986520473923</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1052121875798628</v>
+        <v>0.1062213112818192</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>29286</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20165</v>
+        <v>19335</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43176</v>
+        <v>42286</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03130505580915553</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02155491603873765</v>
+        <v>0.02066768689283805</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04615229901356167</v>
+        <v>0.04520086193413018</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -3451,19 +3451,19 @@
         <v>30565</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20937</v>
+        <v>20851</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43060</v>
+        <v>43921</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02949212840185886</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02020222283219398</v>
+        <v>0.02011883339244135</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04154820502464179</v>
+        <v>0.04237876619812975</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -3472,19 +3472,19 @@
         <v>59851</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45541</v>
+        <v>45254</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77834</v>
+        <v>78311</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03035221468899666</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02309487313979731</v>
+        <v>0.02294945405583083</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03947168732601981</v>
+        <v>0.03971358266438263</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>3100700</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3065416</v>
+        <v>3065995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3130176</v>
+        <v>3134146</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9121268559022373</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9017476695276009</v>
+        <v>0.9019178255153618</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9207978923005966</v>
+        <v>0.9219658370764552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2982</v>
@@ -3597,19 +3597,19 @@
         <v>3219833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3187089</v>
+        <v>3184472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3253040</v>
+        <v>3253486</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9138385141951643</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9045450975501373</v>
+        <v>0.9038023364731232</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.923263148610341</v>
+        <v>0.9233896343233586</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5895</v>
@@ -3618,19 +3618,19 @@
         <v>6320533</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6271404</v>
+        <v>6266288</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6364633</v>
+        <v>6366820</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9129980143896108</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9059013157263417</v>
+        <v>0.9051624025886973</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9193682670107434</v>
+        <v>0.9196842518522571</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>228895</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>199178</v>
+        <v>200652</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>259607</v>
+        <v>263095</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06733360423239029</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05859178515662462</v>
+        <v>0.05902554815798267</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07636810233854041</v>
+        <v>0.07739405346427666</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>227</v>
@@ -3668,19 +3668,19 @@
         <v>242696</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>211666</v>
+        <v>211846</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>273815</v>
+        <v>275272</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06888077077267682</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06007422303981089</v>
+        <v>0.060125230210509</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07771301606468607</v>
+        <v>0.07812651786689133</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>438</v>
@@ -3689,19 +3689,19 @@
         <v>471591</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>430693</v>
+        <v>432211</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>512468</v>
+        <v>519655</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06812104368132728</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06221346204173392</v>
+        <v>0.06243267853379162</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07402579534173753</v>
+        <v>0.0750639553376314</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>69822</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53201</v>
+        <v>53388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90040</v>
+        <v>89290</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02053953986537238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01564997412745121</v>
+        <v>0.01570509689934604</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02648695306438848</v>
+        <v>0.02626634972449769</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -3739,19 +3739,19 @@
         <v>60887</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45656</v>
+        <v>46741</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78301</v>
+        <v>78753</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01728071503215888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01295798748931884</v>
+        <v>0.01326574745162912</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02222317500097713</v>
+        <v>0.02235126700276959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -3760,19 +3760,19 @@
         <v>130710</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>108829</v>
+        <v>109128</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155441</v>
+        <v>157988</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01888094192906193</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01572031641396119</v>
+        <v>0.01576352056232191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02245334848097614</v>
+        <v>0.02282128796544036</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>632374</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>619729</v>
+        <v>619702</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>641872</v>
+        <v>641032</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9485718117871245</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.929604816088905</v>
+        <v>0.9295640461860176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9628190588152543</v>
+        <v>0.9615596687592122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>634</v>
@@ -4125,19 +4125,19 @@
         <v>640836</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>628173</v>
+        <v>628909</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>649705</v>
+        <v>650164</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9568330867557262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9379258083809766</v>
+        <v>0.9390243161224702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9700749578657361</v>
+        <v>0.9707603541948694</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1246</v>
@@ -4146,19 +4146,19 @@
         <v>1273211</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1257279</v>
+        <v>1257571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1287585</v>
+        <v>1287417</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9527119934820789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.94079075567938</v>
+        <v>0.9410089878479793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9634673662363554</v>
+        <v>0.9633420906714119</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>31361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22280</v>
+        <v>22955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43872</v>
+        <v>44211</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04704213024987297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03342096464669329</v>
+        <v>0.03443280658138031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06580817027780406</v>
+        <v>0.06631707161969931</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -4196,19 +4196,19 @@
         <v>23875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16289</v>
+        <v>15809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36573</v>
+        <v>35579</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03564782260513483</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02432171051441787</v>
+        <v>0.02360495218659225</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05460690567328255</v>
+        <v>0.05312282145289633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -4217,19 +4217,19 @@
         <v>55236</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41748</v>
+        <v>41249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70562</v>
+        <v>70525</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04133181263948977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03123917105351814</v>
+        <v>0.03086589517256491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05279983362756246</v>
+        <v>0.05277225259558108</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>2924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7919</v>
+        <v>7860</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004386057963002517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001415952175664736</v>
+        <v>0.001405759482824771</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01187809985069266</v>
+        <v>0.01179030808746324</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -4267,19 +4267,19 @@
         <v>5036</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1866</v>
+        <v>1841</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11934</v>
+        <v>10775</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007519090639138981</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002785669944163991</v>
+        <v>0.002748599943308974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01781910814727956</v>
+        <v>0.01608778503648975</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -4288,19 +4288,19 @@
         <v>7960</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3762</v>
+        <v>3758</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15077</v>
+        <v>15397</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005956193878431298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002815117472055642</v>
+        <v>0.002811936453693</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01128199939209126</v>
+        <v>0.01152125356889876</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>907809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>884060</v>
+        <v>886405</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>927834</v>
+        <v>925922</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8954452083174248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8720203715210528</v>
+        <v>0.8743333545733817</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9151980638087623</v>
+        <v>0.9133116689201759</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>859</v>
@@ -4413,19 +4413,19 @@
         <v>913837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>893130</v>
+        <v>891972</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>933088</v>
+        <v>933746</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8811473054065464</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8611808071896023</v>
+        <v>0.8600641601026722</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8997100382217015</v>
+        <v>0.9003437809901755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1707</v>
@@ -4434,19 +4434,19 @@
         <v>1821646</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1790226</v>
+        <v>1789486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1851798</v>
+        <v>1848805</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8882150653613298</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8728949558372984</v>
+        <v>0.8725342612923318</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9029171490871893</v>
+        <v>0.9014575918930332</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>70681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>55354</v>
+        <v>54701</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>92715</v>
+        <v>89124</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06971878514962936</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05459991311655826</v>
+        <v>0.05395599917880101</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09145260018996587</v>
+        <v>0.08791015675761873</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>72</v>
@@ -4484,19 +4484,19 @@
         <v>78760</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>61427</v>
+        <v>62968</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98786</v>
+        <v>98349</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07594265174196671</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05922996330042312</v>
+        <v>0.06071549661859275</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09525226202824975</v>
+        <v>0.09483106779990849</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>135</v>
@@ -4505,19 +4505,19 @@
         <v>149441</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>126226</v>
+        <v>124411</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>177154</v>
+        <v>175273</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07286606104615442</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06154668989034384</v>
+        <v>0.06066125476092299</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08637847960360683</v>
+        <v>0.08546134632124995</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>35317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25193</v>
+        <v>25106</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49958</v>
+        <v>48619</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03483600653294586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02484993425933258</v>
+        <v>0.02476400371608494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04927744879568665</v>
+        <v>0.04795656720064218</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -4555,19 +4555,19 @@
         <v>44502</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33469</v>
+        <v>32750</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59567</v>
+        <v>60553</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04291004285148688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0322720901393562</v>
+        <v>0.03157852924753256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05743626304764052</v>
+        <v>0.05838661001388827</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -4576,19 +4576,19 @@
         <v>79819</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64817</v>
+        <v>63351</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99487</v>
+        <v>99480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03891887359251582</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03160396674809831</v>
+        <v>0.03088904672918005</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04850862293351858</v>
+        <v>0.04850520018242353</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>605223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>581119</v>
+        <v>582973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>626258</v>
+        <v>627569</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8042008470826993</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7721718435711903</v>
+        <v>0.7746360820009278</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8321507898941161</v>
+        <v>0.833893597515623</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>595</v>
@@ -4701,19 +4701,19 @@
         <v>633545</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>609955</v>
+        <v>610668</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>653213</v>
+        <v>655567</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.816509731123738</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7861080674977283</v>
+        <v>0.7870260453922684</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8418585068622325</v>
+        <v>0.8448923930746699</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1150</v>
@@ -4722,19 +4722,19 @@
         <v>1238768</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1210651</v>
+        <v>1205875</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1269942</v>
+        <v>1269941</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8104492701244227</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7920540360619389</v>
+        <v>0.7889289370963656</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8308442608621488</v>
+        <v>0.8308436246399702</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>97538</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80130</v>
+        <v>78227</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117049</v>
+        <v>117020</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1296049895264801</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1064744244231776</v>
+        <v>0.1039457895727257</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1555314837344657</v>
+        <v>0.1554921827469588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -4772,19 +4772,19 @@
         <v>92924</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76499</v>
+        <v>75839</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>113090</v>
+        <v>113635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.119760437066638</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09859195086683963</v>
+        <v>0.09774154374687452</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1457498962926725</v>
+        <v>0.1464528614087752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>176</v>
@@ -4793,19 +4793,19 @@
         <v>190462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164920</v>
+        <v>164584</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>218245</v>
+        <v>217033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1246075479858463</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1078971494838015</v>
+        <v>0.1076769511809017</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1427841021461753</v>
+        <v>0.1419909541425067</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>49816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36124</v>
+        <v>37318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65693</v>
+        <v>65407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06619416339082058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04800013118150879</v>
+        <v>0.04958720171513191</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08729089538144454</v>
+        <v>0.086910212968039</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -4843,19 +4843,19 @@
         <v>49449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37210</v>
+        <v>37226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65324</v>
+        <v>63746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06372983180962392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04795649486695101</v>
+        <v>0.04797646234632471</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08418945134037165</v>
+        <v>0.08215573281938281</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -4864,19 +4864,19 @@
         <v>99265</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79392</v>
+        <v>80447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120281</v>
+        <v>119519</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06494318188973104</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05194128129085549</v>
+        <v>0.0526317682545409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07869266895690562</v>
+        <v>0.07819384259599105</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>852581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>835812</v>
+        <v>835226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>869284</v>
+        <v>868165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.915261194710481</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.897258492964765</v>
+        <v>0.8966295017562799</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9331914087648204</v>
+        <v>0.9319908178705519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>866</v>
@@ -4989,19 +4989,19 @@
         <v>944112</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>924325</v>
+        <v>924965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>960300</v>
+        <v>961153</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9181033520716194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8988614541692377</v>
+        <v>0.8994832937378394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9338452401459781</v>
+        <v>0.9346744748141794</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1714</v>
@@ -5010,19 +5010,19 @@
         <v>1796694</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1771658</v>
+        <v>1771106</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1820528</v>
+        <v>1822887</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9167524712021253</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9039779239206606</v>
+        <v>0.9036966789463391</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9289139520897767</v>
+        <v>0.9301176174729462</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>71845</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>56265</v>
+        <v>57249</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88992</v>
+        <v>89053</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07712713979703247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06040101150206712</v>
+        <v>0.06145758301518146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09553491634442041</v>
+        <v>0.09559987100255316</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -5060,19 +5060,19 @@
         <v>75354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59556</v>
+        <v>60267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92928</v>
+        <v>95647</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07327799358289662</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05791523054564132</v>
+        <v>0.05860719079437641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0903677811974236</v>
+        <v>0.09301165733728724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>141</v>
@@ -5081,19 +5081,19 @@
         <v>147199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125297</v>
+        <v>122130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171331</v>
+        <v>169844</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07510749748569213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06393219646180151</v>
+        <v>0.06231612866493084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08742069648953925</v>
+        <v>0.08666174823320653</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>7090</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2983</v>
+        <v>2894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13402</v>
+        <v>12854</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.007611665492486545</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003202526164803014</v>
+        <v>0.003106867854349927</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01438677891598351</v>
+        <v>0.01379848797295224</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -5131,19 +5131,19 @@
         <v>8863</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4295</v>
+        <v>4089</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16827</v>
+        <v>16284</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.008618654345483982</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004177082556490191</v>
+        <v>0.003976544625146023</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01636301900148577</v>
+        <v>0.01583529398299515</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -5152,19 +5152,19 @@
         <v>15953</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9021</v>
+        <v>9723</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24983</v>
+        <v>26107</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.008140031312182558</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004603044039536939</v>
+        <v>0.004961269499784686</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01274762374046084</v>
+        <v>0.01332070070345871</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2997987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2958645</v>
+        <v>2958492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3033496</v>
+        <v>3030819</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8910487437635227</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8793555506720994</v>
+        <v>0.8793102085772229</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9016027322337093</v>
+        <v>0.900806969264409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2954</v>
@@ -5277,19 +5277,19 @@
         <v>3132330</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3094988</v>
+        <v>3094772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3170179</v>
+        <v>3172429</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8921238961481729</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8814883693903376</v>
+        <v>0.8814270813354531</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.902903667058591</v>
+        <v>0.9035446940659982</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5817</v>
@@ -5298,19 +5298,19 @@
         <v>6130317</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6077392</v>
+        <v>6074613</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6183857</v>
+        <v>6180770</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8915977766794007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8839003413507835</v>
+        <v>0.8834961004342783</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8993847202398472</v>
+        <v>0.8989357034763851</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>271425</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>240040</v>
+        <v>241126</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>307211</v>
+        <v>306049</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08067189789526905</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07134379124112787</v>
+        <v>0.07166652923755221</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09130803466724151</v>
+        <v>0.09096244798946769</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>253</v>
@@ -5348,19 +5348,19 @@
         <v>270913</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>237871</v>
+        <v>237837</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>302506</v>
+        <v>306801</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07715923092497746</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06774849036753501</v>
+        <v>0.06773870993902288</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08615717661898441</v>
+        <v>0.08738042753608348</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>506</v>
@@ -5369,19 +5369,19 @@
         <v>542339</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>495283</v>
+        <v>501599</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>587548</v>
+        <v>591940</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0788781337584442</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07203434228614056</v>
+        <v>0.07295293042526696</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08545341221079941</v>
+        <v>0.0860922097351739</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>95148</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77357</v>
+        <v>74849</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116413</v>
+        <v>117713</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02827935834120825</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02299167015372375</v>
+        <v>0.02224632129575543</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03459981401362933</v>
+        <v>0.03498623283214532</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -5419,19 +5419,19 @@
         <v>107850</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>88620</v>
+        <v>87438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131333</v>
+        <v>130445</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03071687292684961</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02524005330427091</v>
+        <v>0.02490348785640108</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03740520970085897</v>
+        <v>0.0371521278272585</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>189</v>
@@ -5440,19 +5440,19 @@
         <v>202997</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>175339</v>
+        <v>176693</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>231390</v>
+        <v>233220</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02952408956215517</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02550137473496872</v>
+        <v>0.02569842490315654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03365354025303906</v>
+        <v>0.03391973356549693</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>669985</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>659580</v>
+        <v>660740</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>677040</v>
+        <v>676827</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9715224543812904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9564341815872938</v>
+        <v>0.9581156649078229</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.981752057163971</v>
+        <v>0.9814430008871003</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1210</v>
@@ -5805,19 +5805,19 @@
         <v>714493</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>703227</v>
+        <v>703435</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>720904</v>
+        <v>721196</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.974113420934565</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9587544685011995</v>
+        <v>0.9590379060786837</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9828539607223619</v>
+        <v>0.9832524136982516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1917</v>
@@ -5826,19 +5826,19 @@
         <v>1384477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1371608</v>
+        <v>1370699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1394438</v>
+        <v>1394494</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9728578606295684</v>
+        <v>0.9728578606295685</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.963815017229085</v>
+        <v>0.9631765264502908</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9798575596640084</v>
+        <v>0.9798968272301967</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>14331</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8613</v>
+        <v>8232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23251</v>
+        <v>22781</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02078082473235483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01249010346964394</v>
+        <v>0.01193637966120782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.033715107890732</v>
+        <v>0.03303401535808335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -5876,19 +5876,19 @@
         <v>15303</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9530</v>
+        <v>9556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28276</v>
+        <v>26849</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02086299897492089</v>
+        <v>0.02086299897492088</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.012993016876082</v>
+        <v>0.01302870119189536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03855082954105677</v>
+        <v>0.03660446685823837</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -5897,19 +5897,19 @@
         <v>29634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20135</v>
+        <v>20860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42311</v>
+        <v>42914</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02082317803746853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01414893052718569</v>
+        <v>0.01465784077315096</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02973139951298442</v>
+        <v>0.0301550690854128</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>5308</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2221</v>
+        <v>1793</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11101</v>
+        <v>10993</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007696720886354709</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003220845130192332</v>
+        <v>0.002600113437187273</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01609679039224913</v>
+        <v>0.01594082958377659</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -5947,19 +5947,19 @@
         <v>3685</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1297</v>
+        <v>1313</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7610</v>
+        <v>7614</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005023580090514238</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001767662179202115</v>
+        <v>0.001790643228675457</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01037456988122114</v>
+        <v>0.01038119970167319</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -5968,19 +5968,19 @@
         <v>8993</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5176</v>
+        <v>4769</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15882</v>
+        <v>15877</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.006318961332963006</v>
+        <v>0.006318961332963007</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003637255563375427</v>
+        <v>0.003351376901984345</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01116001458246292</v>
+        <v>0.01115646859668749</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>985941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>966573</v>
+        <v>967624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1000640</v>
+        <v>1001573</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9412056920054508</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9227164142079738</v>
+        <v>0.9237194653164148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9552372678081283</v>
+        <v>0.9561285048227224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1441</v>
@@ -6093,19 +6093,19 @@
         <v>1013738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>996816</v>
+        <v>997187</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025137</v>
+        <v>1024925</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9477133153557484</v>
+        <v>0.9477133153557487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9318941749657551</v>
+        <v>0.9322401308031074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9583697693659823</v>
+        <v>0.9581721243013256</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2350</v>
@@ -6114,19 +6114,19 @@
         <v>1999679</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1975522</v>
+        <v>1975877</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2020670</v>
+        <v>2019167</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9444935241800088</v>
+        <v>0.944493524180009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9330838169449452</v>
+        <v>0.9332515745333194</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9544081956699642</v>
+        <v>0.9536983668128337</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>34436</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23617</v>
+        <v>24169</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48936</v>
+        <v>50052</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03287398635944054</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02254540719777856</v>
+        <v>0.0230724016337226</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04671579306717098</v>
+        <v>0.04778057677227691</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -6164,19 +6164,19 @@
         <v>36577</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27516</v>
+        <v>26788</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52114</v>
+        <v>51679</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03419468794682431</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02572434523795149</v>
+        <v>0.0250430399539465</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04871993490744826</v>
+        <v>0.04831351492758861</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -6185,19 +6185,19 @@
         <v>71013</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>56166</v>
+        <v>56486</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>91377</v>
+        <v>90039</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03354124150594368</v>
+        <v>0.03354124150594369</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02652851018582009</v>
+        <v>0.02667958939547372</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04315927838946249</v>
+        <v>0.04252738278449274</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>27152</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17731</v>
+        <v>17606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41993</v>
+        <v>41916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02592032163510873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01692644715812714</v>
+        <v>0.01680675756552783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04008736688345839</v>
+        <v>0.04001452351303222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -6235,19 +6235,19 @@
         <v>19352</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12483</v>
+        <v>12793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28894</v>
+        <v>29898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01809199669742709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01167037212294066</v>
+        <v>0.01196021345098299</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02701225467952832</v>
+        <v>0.02795099710553338</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -6256,19 +6256,19 @@
         <v>46505</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33476</v>
+        <v>34447</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63607</v>
+        <v>63281</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02196523431404753</v>
+        <v>0.02196523431404754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01581163673000852</v>
+        <v>0.01627003796095487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03004288443367241</v>
+        <v>0.02988907780742803</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>755283</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>737777</v>
+        <v>740156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>768478</v>
+        <v>768439</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9430339457331101</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.921175211765846</v>
+        <v>0.9241457092893871</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.95950893714457</v>
+        <v>0.9594602748651769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>988</v>
@@ -6381,19 +6381,19 @@
         <v>761785</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>749111</v>
+        <v>749223</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>771988</v>
+        <v>772156</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9512219310221872</v>
+        <v>0.9512219310221871</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9353964540219966</v>
+        <v>0.9355354066795112</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9639616064829655</v>
+        <v>0.9641717373626044</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1623</v>
@@ -6402,19 +6402,19 @@
         <v>1517068</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1494546</v>
+        <v>1495165</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1535351</v>
+        <v>1533516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9471277879834661</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9330671335343599</v>
+        <v>0.9334536169328448</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9585421521358934</v>
+        <v>0.9573970177366249</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>42362</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30301</v>
+        <v>28910</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59999</v>
+        <v>56731</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0528923630398006</v>
+        <v>0.05289236303980058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03783309117778277</v>
+        <v>0.03609601710997323</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07491420248814334</v>
+        <v>0.07083300506157331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -6452,19 +6452,19 @@
         <v>37632</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27745</v>
+        <v>27576</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50278</v>
+        <v>50418</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04699050406842392</v>
+        <v>0.04699050406842394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0346450248655181</v>
+        <v>0.03443311643597768</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06278094409598146</v>
+        <v>0.0629559529951156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -6473,19 +6473,19 @@
         <v>79994</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63141</v>
+        <v>62851</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102497</v>
+        <v>99865</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04994154195748904</v>
+        <v>0.04994154195748903</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03941990622182081</v>
+        <v>0.03923911123402084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06399028756621344</v>
+        <v>0.06234705939818581</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>3263</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9160</v>
+        <v>9225</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004073691227089313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001135984436000595</v>
+        <v>0.001158179077187478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01143671236044069</v>
+        <v>0.0115185934650494</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5477</v>
+        <v>5050</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001787564909388995</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.006838462241388828</v>
+        <v>0.006306039017892834</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -6544,19 +6544,19 @@
         <v>4694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1708</v>
+        <v>1668</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11711</v>
+        <v>11301</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002930670059044726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001066411637752345</v>
+        <v>0.001041195375566844</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007311434884582229</v>
+        <v>0.007055244226627486</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>932096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>914726</v>
+        <v>915042</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>947215</v>
+        <v>947388</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9443261501656186</v>
+        <v>0.9443261501656187</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9267285378838326</v>
+        <v>0.9270482189963242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9596437242150085</v>
+        <v>0.9598184087971403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1457</v>
@@ -6669,19 +6669,19 @@
         <v>1047371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1030898</v>
+        <v>1031016</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1059577</v>
+        <v>1060481</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9408077830987288</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9260110257307929</v>
+        <v>0.9261166611041196</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9517712943250614</v>
+        <v>0.9525836389760517</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2405</v>
@@ -6690,19 +6690,19 @@
         <v>1979467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1955245</v>
+        <v>1956116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1999343</v>
+        <v>1999322</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9424612484560134</v>
+        <v>0.9424612484560135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9309287131231841</v>
+        <v>0.93134333459816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9519245974399548</v>
+        <v>0.9519146013281932</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>40231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28678</v>
+        <v>28601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54867</v>
+        <v>56594</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0407585323092878</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02905438438816034</v>
+        <v>0.02897667347225556</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05558731515497307</v>
+        <v>0.05733672448120378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -6740,19 +6740,19 @@
         <v>48613</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37781</v>
+        <v>38721</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61894</v>
+        <v>63136</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04366736357732685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03393735118695949</v>
+        <v>0.03478137464243915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05559626680510137</v>
+        <v>0.05671249514497027</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -6761,19 +6761,19 @@
         <v>88844</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72407</v>
+        <v>71952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109290</v>
+        <v>107313</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04230035108532416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03447441412445045</v>
+        <v>0.03425757631497672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05203515828211098</v>
+        <v>0.05109366206721221</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>14722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6873</v>
+        <v>7416</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28770</v>
+        <v>27569</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.01491531752509359</v>
+        <v>0.0149153175250936</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006963597001492715</v>
+        <v>0.007513667974501487</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02914738792545933</v>
+        <v>0.0279309391299423</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -6811,19 +6811,19 @@
         <v>17283</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11069</v>
+        <v>10783</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27493</v>
+        <v>28699</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0155248533239444</v>
+        <v>0.01552485332394441</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009942654859433424</v>
+        <v>0.009685774143691797</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02469617653620764</v>
+        <v>0.02577880034645952</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -6832,19 +6832,19 @@
         <v>32005</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22077</v>
+        <v>22711</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>47842</v>
+        <v>47187</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01523840045866232</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01051137660908576</v>
+        <v>0.01081303064911036</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0227783984666385</v>
+        <v>0.02246643731262194</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>3343306</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3311136</v>
+        <v>3314417</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3371021</v>
+        <v>3370588</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9484257402358232</v>
+        <v>0.9484257402358233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9392996819456362</v>
+        <v>0.9402303929318508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9562879549842149</v>
+        <v>0.9561650295046346</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5096</v>
@@ -6957,19 +6957,19 @@
         <v>3537386</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3511962</v>
+        <v>3512639</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3559783</v>
+        <v>3560946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9516102972574358</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9447708498127126</v>
+        <v>0.9449531503599885</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.957635482655021</v>
+        <v>0.957948298908444</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8295</v>
@@ -6978,19 +6978,19 @@
         <v>6880691</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6837603</v>
+        <v>6841540</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6913790</v>
+        <v>6914116</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9500602645227754</v>
+        <v>0.9500602645227755</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9441107967212801</v>
+        <v>0.9446544624329316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9546304980902403</v>
+        <v>0.9546754568701026</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>131360</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>105394</v>
+        <v>109144</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>156876</v>
+        <v>158904</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03726408157869515</v>
+        <v>0.03726408157869514</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02989818490045975</v>
+        <v>0.03096186075594612</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04450239140769569</v>
+        <v>0.04507785008172304</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>192</v>
@@ -7028,19 +7028,19 @@
         <v>138125</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>116922</v>
+        <v>118375</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>159948</v>
+        <v>160268</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03715778593160674</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03145372231761837</v>
+        <v>0.03184469606067194</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04302842490110403</v>
+        <v>0.04311443680704311</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>318</v>
@@ -7049,19 +7049,19 @@
         <v>269485</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>242185</v>
+        <v>240880</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>309377</v>
+        <v>306378</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.03720952365569858</v>
+        <v>0.03720952365569859</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03344000433878582</v>
+        <v>0.03325980500220652</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04271764751638848</v>
+        <v>0.04230347987430153</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>50445</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36496</v>
+        <v>36304</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>73548</v>
+        <v>68243</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01431017818548169</v>
+        <v>0.0143101781854817</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01035326830226094</v>
+        <v>0.01029865284064625</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02086403646699904</v>
+        <v>0.01935910789510804</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -7099,19 +7099,19 @@
         <v>41752</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31207</v>
+        <v>31916</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55022</v>
+        <v>54662</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01123191681095753</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008395121767991467</v>
+        <v>0.008585850604392832</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0148017762189493</v>
+        <v>0.0147047723069492</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -7120,19 +7120,19 @@
         <v>92197</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73349</v>
+        <v>74460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113452</v>
+        <v>113868</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0127302118215259</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0101277494168506</v>
+        <v>0.01028110524514072</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01566501183099869</v>
+        <v>0.01572248651618933</v>
       </c>
     </row>
     <row r="23">
